--- a/Improvement_ideas.xlsx
+++ b/Improvement_ideas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bojidar\University\Semester 7\Individual stuff\Data Chalange\drone_navigation_rl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1595BF44-5D22-430D-9EA3-24E153689335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418C141E-2709-4261-99CF-2BA7E13E891B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8171310D-64FC-45B7-AABE-6D78A380E344}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="248">
   <si>
     <t>Training ideas</t>
   </si>
@@ -726,6 +726,60 @@
   </si>
   <si>
     <t>Add "time to reach goal" reward</t>
+  </si>
+  <si>
+    <t>Test 2.82</t>
+  </si>
+  <si>
+    <t>avg: 3000</t>
+  </si>
+  <si>
+    <t>Environment 3; Reverted changes from 2.81</t>
+  </si>
+  <si>
+    <t>Focus more on flying that on flying at the level of the reward.</t>
+  </si>
+  <si>
+    <t>Test 2.83</t>
+  </si>
+  <si>
+    <t>avg: 55000</t>
+  </si>
+  <si>
+    <t>Good flying, but the drone gets stuck and can't fly over obstacles</t>
+  </si>
+  <si>
+    <t>Increase the height of the reward (8 -&gt; 16) and the length of the episode.</t>
+  </si>
+  <si>
+    <t>Flies but spins and doesn't go in the desired direction</t>
+  </si>
+  <si>
+    <t>Test 2.84</t>
+  </si>
+  <si>
+    <t>Multiply distance reward by 1.5; Continue training from 2.82</t>
+  </si>
+  <si>
+    <t>avg: 90000</t>
+  </si>
+  <si>
+    <t>avg: 130000</t>
+  </si>
+  <si>
+    <t>Good flying, height needs to be increased a bit and navigation is bad</t>
+  </si>
+  <si>
+    <t>Test 2.85</t>
+  </si>
+  <si>
+    <t>Increase the height of the reward (16 -&gt; 22), Chnaged maxDistance value from 250 to dinamic value. Fixed bug with initial high distance on first Update. Continue training from 2.82</t>
+  </si>
+  <si>
+    <t>avg: 165000</t>
+  </si>
+  <si>
+    <t>Very good flying, navigation is still bad.</t>
   </si>
 </sst>
 </file>
@@ -1538,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620486B3-E910-4CF5-A28B-AA3A6519E480}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2699,74 +2753,120 @@
       <c r="E61" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="25"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="33"/>
+      <c r="F61" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="33" t="s">
+        <v>232</v>
+      </c>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
       <c r="D62" s="35"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="25"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="33"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="25"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="25"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="25"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="33"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
+      <c r="E62" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="30"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
       <c r="H66" s="25"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="33"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
+    <row r="67" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="30"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="25"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="33"/>
+    <row r="68" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33" t="s">
+        <v>233</v>
+      </c>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
       <c r="D68" s="35"/>
@@ -2805,18 +2905,70 @@
       <c r="G71" s="24"/>
       <c r="H71" s="25"/>
     </row>
-    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="36"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="27"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="33"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="33"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="33"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="33"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="36"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A54:D54"/>
@@ -2848,6 +3000,7 @@
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="E10:E11"/>
@@ -2869,7 +3022,6 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A18:D18"/>
@@ -2893,16 +3045,21 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A77:D77"/>
     <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A55:D55"/>
